--- a/trunk/Wip/Documents/java-s/InterfaceAnalysis/Chien.InterfaceAnalysis.xlsx
+++ b/trunk/Wip/Documents/java-s/InterfaceAnalysis/Chien.InterfaceAnalysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="8505" tabRatio="874" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="8505" tabRatio="874" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Chien_OrgList" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,205 @@
     <sheet name="Dai_SupportingMaterDetails" sheetId="7" r:id="rId7"/>
     <sheet name="Chien_BuDirectList" sheetId="8" r:id="rId8"/>
     <sheet name="Luan_BuDirectDetail" sheetId="9" r:id="rId9"/>
-    <sheet name="Chien_DepartmentsList" sheetId="10" r:id="rId10"/>
-    <sheet name="Dai_DepartmentDetail" sheetId="11" r:id="rId11"/>
+    <sheet name="OrganisationList" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+  <si>
+    <t>Process ID</t>
+  </si>
+  <si>
+    <t>Process name</t>
+  </si>
+  <si>
+    <t>Function name</t>
+  </si>
+  <si>
+    <t>SubSystem</t>
+  </si>
+  <si>
+    <t>Create date</t>
+  </si>
+  <si>
+    <t>Update date</t>
+  </si>
+  <si>
+    <t>Format run (gọi ra)</t>
+  </si>
+  <si>
+    <t>Giải thích chức năng</t>
+  </si>
+  <si>
+    <t>Tham số</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Output kết quả run</t>
+  </si>
+  <si>
+    <t>（dialog）</t>
+  </si>
+  <si>
+    <t>Process nguồn gọi ra</t>
+  </si>
+  <si>
+    <t>Menu tổng hợp ReferSystem cũ</t>
+  </si>
+  <si>
+    <t>（Process ID）</t>
+  </si>
+  <si>
+    <t>Org_List</t>
+  </si>
+  <si>
+    <t>Organisation List</t>
+  </si>
+  <si>
+    <t>2012.03.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách Organisation  và các thao tác Sort (sắp xếp theo tên Organisation ) , Filter (Lọc theo tên Organisation ) , Create (tạo mới Organisation) , Active một Organisation
+</t>
+  </si>
+  <si>
+    <t>【Nội dung xử lý】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện ［Hiển thị ListOrganisation］［Sắp xếp theo tên Organisation］［Lọc theo tên Organisation］ ［Tạo mới Organisation］ ［Active một Organisation］ </t>
+  </si>
+  <si>
+    <t>Hiển thị ListOrganisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・Hiển thị nội dung table Organisation </t>
+  </si>
+  <si>
+    <t>from Organisation , Contact , Address where Organisation.ContacID = Contact.ContacID and Organisation.AddressID = Address.AddressID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format Table : </t>
+  </si>
+  <si>
+    <t>SQL:select OrgName , Addres , Postcode , FistName concat LastName ,IsActive</t>
+  </si>
+  <si>
+    <t>15 record trên 1 page</t>
+  </si>
+  <si>
+    <t>Phân trang</t>
+  </si>
+  <si>
+    <t>Mỗi dòng có màu so le , Inactive có màu xám</t>
+  </si>
+  <si>
+    <t>Mặc định hiển thị All , Record đầu tiên được lựa chọn</t>
+  </si>
+  <si>
+    <t>Cột Is Active hiện Yes / No</t>
+  </si>
+  <si>
+    <t>Sắp xếp theo tên Organisation</t>
+  </si>
+  <si>
+    <t>・Sắp xếp theo tên Organisation bằng cách click vào header của Organisation Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sắp xếp  Organisation Name theo thứ tự  abc </t>
+  </si>
+  <si>
+    <t>Lọc theo tên Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・Click vào link như  A B C D E |  F G H I J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">・Hiển thị dòng thông báo không có dữ liệu nếu truy vấn không có record nào </t>
+  </si>
+  <si>
+    <t>Tạo mới Organisation</t>
+  </si>
+  <si>
+    <t>・Click vào button Create</t>
+  </si>
+  <si>
+    <t>Chuyển sang màn hình Organisation Detail</t>
+  </si>
+  <si>
+    <t>・Hiển thị nội dung table Organisation khi check Include In-active</t>
+  </si>
+  <si>
+    <t>Chỉ gồm những Organisation Active</t>
+  </si>
+  <si>
+    <t>from Organisation , Contact , Address where Organisation.ContacID = Contact.ContacID and Organisation.AddressID = Address.AddressID and Organisation.IsActive = true</t>
+  </si>
+  <si>
+    <t>Active một Organisation</t>
+  </si>
+  <si>
+    <t>・Hiển thị  prompt confirm thực hiện  Do you want to make this Organisation active ?  Với 2 button  OK và Cancel</t>
+  </si>
+  <si>
+    <t>SQL:update Organisation set Is Active = "true" where OrgID = "[id record vừa chọn]"</t>
+  </si>
+  <si>
+    <t>・Double Click vào Organisation In-active</t>
+  </si>
+  <si>
+    <t>Nếu input là「OK」</t>
+  </si>
+  <si>
+    <t>Update record đã chọn trong bảng Organisation</t>
+  </si>
+  <si>
+    <t>Nếu input là「Cancel」</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3315B3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quay về  trạng thái trước khi thực hiện active (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">→ table với các lựa chon sort , filter </t>
+    </r>
+  </si>
+  <si>
+    <t>from Organisation , Contact , Address where Organisation.ContacID = Contact.ContacID and Organisation.AddressID = Address.AddressID and  where OrgName BEETWEEN "[chữ cái ]" AND "[chữ cái]"</t>
+  </si>
+  <si>
+    <t>Update lại table hiển thị thêm cả Organisation In-active</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\(0\)"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +222,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3315B3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -50,18 +280,543 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3315B3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -124,19 +879,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1059</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -148,57 +903,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609600" y="952500"/>
-          <a:ext cx="5977890" cy="1915160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="762000"/>
-          <a:ext cx="5977890" cy="3484880"/>
+          <a:off x="696383" y="228600"/>
+          <a:ext cx="6426200" cy="3528060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -684,7 +1390,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -719,7 +1424,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -895,14 +1599,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -910,44 +1615,1318 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A21:V75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="14"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="14"/>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="14"/>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="14"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="14"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="46"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="49"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="40">
+        <v>1</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="49"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="49"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="49"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="49"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="49"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="49"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="49"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="49"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="49"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="49"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="49"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="49"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="49"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="49"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="40">
+        <v>2</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="49"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="49"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="49"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="49"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="40">
+        <v>3</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="49"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="49"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="47"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="49"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="49"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="49"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="49"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="40">
+        <v>4</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="49"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="48"/>
+      <c r="U58" s="49"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="48"/>
+      <c r="U59" s="49"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="48"/>
+      <c r="U60" s="49"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="40">
+        <v>5</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="49"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
+      <c r="U62" s="49"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="48"/>
+      <c r="U63" s="49"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="48"/>
+      <c r="U64" s="49"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="48"/>
+      <c r="U65" s="49"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
+      <c r="U66" s="49"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="47"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="49"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="49"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="47"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="49"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="53"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="55"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="S75" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="M24:U24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="M25:U27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -955,14 +2934,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -970,14 +2950,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -985,14 +2966,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1000,14 +2982,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1015,14 +2998,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1030,14 +3014,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1045,14 +3030,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
